--- a/src/crm/warranty_rule.xlsx
+++ b/src/crm/warranty_rule.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nam PC\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nam PC\Desktop\Data lug id tháng 3\data chưa chuyển đổi mã mới\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -14,12 +14,12 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1156" uniqueCount="628">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1143" uniqueCount="619">
   <si>
     <t xml:space="preserve">Mã gốc </t>
   </si>
@@ -513,12 +513,30 @@
     <t>PW005-032501_20_BLACK</t>
   </si>
   <si>
+    <t>PW004_20_LIGHT GREY</t>
+  </si>
+  <si>
     <t>Vali Fusion PW004</t>
   </si>
   <si>
+    <t>PW004-032501_20_LIGHT GREY</t>
+  </si>
+  <si>
     <t>Vali Fusion PW004 (Bảo Hành 1 Đổi 1)</t>
   </si>
   <si>
+    <t>PW004_24_LIGHT GREY</t>
+  </si>
+  <si>
+    <t>PW004-032501_24_LIGHT GREY</t>
+  </si>
+  <si>
+    <t>PW004_28_LIGHT GREY</t>
+  </si>
+  <si>
+    <t>PW004-032501_28_LIGHT GREY</t>
+  </si>
+  <si>
     <t>PW004_28_WHITE</t>
   </si>
   <si>
@@ -1464,9 +1482,6 @@
     <t>VALY NHỰA 8 BÁNH HIỆU ECHOLAC PC279G</t>
   </si>
   <si>
-    <t>PC279G-032501_BLACK</t>
-  </si>
-  <si>
     <t>VALY ECHOLAC PC279G (Bảo Hành Trọn Đời)</t>
   </si>
   <si>
@@ -1641,268 +1656,226 @@
     <t>PP02-032501_24_NAVY</t>
   </si>
   <si>
-    <t>EL31295-032501_28_PINK</t>
-  </si>
-  <si>
-    <t>Vali Elle EL31295 (Bảo Hành 1 Đổi 1)</t>
-  </si>
-  <si>
-    <t>EL31295-032501_28_MUSTARD</t>
-  </si>
-  <si>
-    <t>EL31295-032501_28_LAVENDER</t>
-  </si>
-  <si>
-    <t>EL31295-032501_24_PINK</t>
-  </si>
-  <si>
-    <t>EL31295-032501_24_MUSTARD</t>
-  </si>
-  <si>
-    <t>EL31295-032501_24_LAVENDER</t>
-  </si>
-  <si>
-    <t>EL31295-032501_20_PINK</t>
-  </si>
-  <si>
-    <t>EL31295-032501_20_MUSTARD</t>
-  </si>
-  <si>
-    <t>EL31295-032501_20_LAVENDER</t>
-  </si>
-  <si>
-    <t>CTA148-032501_25_DARK GREY</t>
-  </si>
-  <si>
-    <t>CTA148-032501_20_DARK GREY</t>
-  </si>
-  <si>
-    <t>Vali IT Luggage IT15-2881-08 (Bảo Hành 5 Năm)</t>
-  </si>
-  <si>
-    <t>PPT013-032501_28_LIGHT-BLUE</t>
-  </si>
-  <si>
-    <t>PPT013-032501_28_DARK-GREY</t>
-  </si>
-  <si>
-    <t>PW004-032501_24_LIGHT-GREY</t>
-  </si>
-  <si>
-    <t>PW004-032501_28_LIGHT-GREY</t>
-  </si>
-  <si>
-    <t>PW004-032501_20_LIGHT-GREY</t>
-  </si>
-  <si>
-    <t>PPT013-032501_28_LIGHT-COFFEE</t>
-  </si>
-  <si>
-    <t>PPT013-032501_28_DARK-PURPLE</t>
-  </si>
-  <si>
-    <t>PPT013-032501_24_LIGHT-BLUE</t>
-  </si>
-  <si>
-    <t>PPT013-032501_24_DARK-GREY</t>
-  </si>
-  <si>
-    <t>PPT013-032501_24_LIGHT-COFFEE</t>
-  </si>
-  <si>
-    <t>PPT013-032501_24_DARK-PURPLE</t>
-  </si>
-  <si>
-    <t>PPT013-032501_20_LIGHT-BLUE</t>
-  </si>
-  <si>
-    <t>PPT013-032501_20_DARK-GREY</t>
-  </si>
-  <si>
-    <t>PPT013-032501_20_LIGHT-COFFEE</t>
-  </si>
-  <si>
-    <t>PPT013-032501_20_DARK-PURPLE</t>
-  </si>
-  <si>
-    <t>PC142Y-032501_28_DARK-GREY</t>
-  </si>
-  <si>
-    <t>PC142Y-032501_28_ICE-BLUE</t>
-  </si>
-  <si>
-    <t>PC142Y-032501_28_DARK-BLUE</t>
-  </si>
-  <si>
-    <t>PC142Y-032501_24_WHITE-SAND</t>
-  </si>
-  <si>
-    <t>PC142Y-032501_24_DARK-GREY</t>
-  </si>
-  <si>
-    <t>PC142Y-032501_24_ICE-BLUE</t>
+    <t>CTA148-032501_25_GREY</t>
+  </si>
+  <si>
+    <t>CTA148-032501_20_GREY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12-2894E08-032501_73.6_RIFLE-GREEN </t>
+  </si>
+  <si>
+    <t xml:space="preserve">12-2894E08-032501_73.6_BROWN </t>
+  </si>
+  <si>
+    <t xml:space="preserve">12-2894E08-032501_63.5_RIFLE-GREEN </t>
+  </si>
+  <si>
+    <t xml:space="preserve">12-2894E08-032501_63.5_BROWN </t>
+  </si>
+  <si>
+    <t xml:space="preserve">12-2894E08-032501_47.5_RIFLE-GREEN </t>
+  </si>
+  <si>
+    <t xml:space="preserve">12-2894E08-032501_47.5_BROWN </t>
+  </si>
+  <si>
+    <t xml:space="preserve">PPT013-032501_28_LIGHT-BLUE </t>
+  </si>
+  <si>
+    <t xml:space="preserve">PPT013-032501_28_DARK-GREY </t>
+  </si>
+  <si>
+    <t xml:space="preserve">PPT013-032501_28_LIGHT-COFFEE </t>
+  </si>
+  <si>
+    <t xml:space="preserve">PPT013-032501_28_DARK-PURPLE </t>
+  </si>
+  <si>
+    <t xml:space="preserve">PPT013-032501_24_LIGHT-BLUE </t>
+  </si>
+  <si>
+    <t xml:space="preserve">PPT013-032501_24_DARK-GREY </t>
+  </si>
+  <si>
+    <t xml:space="preserve">PPT013-032501_24_LIGHT-COFFEE </t>
+  </si>
+  <si>
+    <t xml:space="preserve">PPT013-032501_24_DARK-PURPLE </t>
+  </si>
+  <si>
+    <t xml:space="preserve">PPT013-032501_20_LIGHT-BLUE </t>
+  </si>
+  <si>
+    <t xml:space="preserve">PPT013-032501_20_DARK-GREY </t>
+  </si>
+  <si>
+    <t xml:space="preserve">PPT013-032501_20_LIGHT-COFFEE </t>
+  </si>
+  <si>
+    <t xml:space="preserve">PPT013-032501_20_DARK-PURPLE </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vali Elle EL31295 (Bảo Hành 1 Đổi 1) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">VALI ECHOLAC CTA148 (Bảo Hành Trọn Đời) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">EL31295-032501-33_28 </t>
+  </si>
+  <si>
+    <t>EL31295-032501-33_24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EL31295-032501-89_28 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">EL31295-032501-64_28 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">EL31295-032501-89_24 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">EL31295-032501-64_24 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">EL31295-032501-33_20 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">EL31295-032501-89_20 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">EL31295-032501-64_20 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">VALY KHUNG NHÔM COUNTRY HIDE CH12-24-9002 (Bảo Hành Trọn Đời) </t>
   </si>
   <si>
     <t xml:space="preserve">CH12-24-9002-032501_20_GOLDEN </t>
   </si>
   <si>
-    <t xml:space="preserve">VALY KHUNG NHÔM COUNTRY HIDE CH12-24-9002 (Bảo Hành Trọn Đời) </t>
+    <t xml:space="preserve">VALI VERAGE GM20025W (Bảo Hành Trọn Đời) </t>
   </si>
   <si>
     <t xml:space="preserve">GM20025W-032501_19_TITANIUM-GOLD </t>
   </si>
   <si>
-    <t>PC142Y-032501_24_DARK-BLUE</t>
-  </si>
-  <si>
-    <t>PC142Y-032501_20_WHITE-SAND</t>
-  </si>
-  <si>
-    <t>PC142Y-032501_20_DARK-GREY</t>
-  </si>
-  <si>
-    <t>PC142Y-032501_20_ICE-BLUE</t>
-  </si>
-  <si>
-    <t>PC142Y-032501_20_DARK-BLUE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VALI VERAGE GM20025W (Bảo Hành Trọn Đời) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">PC142Y-032501_28_WHITE-SAND </t>
-  </si>
-  <si>
-    <t>PC185-032501_28_SILVER-WHITE</t>
-  </si>
-  <si>
-    <t>PC185-032501_28_LIGHT-BLUE</t>
-  </si>
-  <si>
-    <t>PC185-032501_28_DEEP-OLIVE</t>
-  </si>
-  <si>
-    <t>PC185-032501_24_SILVER-WHITE</t>
-  </si>
-  <si>
-    <t>PC185-032501_24_LIGHT-BLUE</t>
-  </si>
-  <si>
-    <t>PC185-032501_24_DEEP-OLIVE</t>
-  </si>
-  <si>
-    <t>PC185-032501_20_SILVER-WHITE</t>
-  </si>
-  <si>
-    <t>PC185-032501_20_LIGHT-BLUE</t>
-  </si>
-  <si>
-    <t>PC185-032501_20_DEEP-OLIVE</t>
-  </si>
-  <si>
-    <t>PC185-032501_14_SILVER-WHITE</t>
-  </si>
-  <si>
-    <t>PC185-032501_14_LIGHT-BLUE</t>
-  </si>
-  <si>
-    <t>PC185-032501_14_DEEP-OLIVE</t>
-  </si>
-  <si>
-    <t>PC185-032501_28_WHITE</t>
-  </si>
-  <si>
-    <t>IT15-2881-08-032501_74_BLUE-GLOW</t>
-  </si>
-  <si>
-    <t>IT15-2881-08-032501_74_SOFT-PINK</t>
-  </si>
-  <si>
-    <t>IT15-2881-08-032501_63_BLUE-GLOW</t>
-  </si>
-  <si>
-    <t>IT15-2881-08-032501_63_SOFT-PINK</t>
-  </si>
-  <si>
-    <t>IT15-2881-08-032501_51_BLUE-GLOW</t>
-  </si>
-  <si>
-    <t>IT15-2881-08-032501_51_SOFT-PINK</t>
-  </si>
-  <si>
-    <t>12-2894E08-032501_73.6_RIFLE-GREEN</t>
-  </si>
-  <si>
-    <t>PC183S-032501_24_SLATE-BLUE</t>
-  </si>
-  <si>
-    <t>PC183S-032501_20_SLATE-BLUE</t>
-  </si>
-  <si>
-    <t>PC183S-032501_28_SLATE-BLUE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12-2894E08-032501_73.6_BROWN </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vali IT Luggage 12-2894E08 (Bảo Hành 5 Năm) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">12-2894E08-032501_63.5_RIFLE-GREEN </t>
-  </si>
-  <si>
-    <t xml:space="preserve">12-2894E08-032501_63.5_BROWN </t>
-  </si>
-  <si>
-    <t xml:space="preserve">12-2894E08-032501_47.5_RIFLE-GREEN </t>
-  </si>
-  <si>
-    <t xml:space="preserve">12-2894E08-032501_47.5_BROWN </t>
+    <t xml:space="preserve">PC279G-032501_20_BLACK </t>
+  </si>
+  <si>
+    <t xml:space="preserve">PC279G_20_LIGHT-GREY </t>
+  </si>
+  <si>
+    <t xml:space="preserve">VALY NHỰA 8 BÁNH HIỆU ECHOLAC PC279G </t>
+  </si>
+  <si>
+    <t xml:space="preserve">PC279G_20_DEEP-OLIVE </t>
+  </si>
+  <si>
+    <t xml:space="preserve">PC279G-032501_20_DEEP-OLIVE </t>
+  </si>
+  <si>
+    <t xml:space="preserve">PC279G-032501_20_LIGHT-GREY </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vali Dynasty PC142Y (Bảo Hành 10 Năm) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vali Square Pro PC185 (Bảo Hành 10 Năm) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">PC185-032501_28_SILVER-WHITE </t>
+  </si>
+  <si>
+    <t xml:space="preserve">PC185-032501_24_SILVER-WHITE </t>
+  </si>
+  <si>
+    <t xml:space="preserve">PC185-032501_20_SILVER-WHITE </t>
+  </si>
+  <si>
+    <t xml:space="preserve">PC185-032501_14_SILVER-WHITE </t>
+  </si>
+  <si>
+    <t xml:space="preserve">PC185-032501_28_LIGHT-BLUE </t>
+  </si>
+  <si>
+    <t xml:space="preserve">PC185-032501_24_LIGHT-BLUE </t>
+  </si>
+  <si>
+    <t xml:space="preserve">PC185-032501_20_LIGHT-BLUE </t>
+  </si>
+  <si>
+    <t xml:space="preserve">PC185-032501_14_LIGHT-BLUE </t>
+  </si>
+  <si>
+    <t xml:space="preserve">PC185-032501_28_DEEP-OLIVE </t>
+  </si>
+  <si>
+    <t xml:space="preserve">PC185-032501_24_DEEP-OLIVE </t>
+  </si>
+  <si>
+    <t xml:space="preserve">PC185-032501_20_DEEP-OLIVE </t>
+  </si>
+  <si>
+    <t xml:space="preserve">PC185-032501_14_DEEP-OLIVE </t>
+  </si>
+  <si>
+    <t xml:space="preserve">PC185-032501_28_WHITE </t>
+  </si>
+  <si>
+    <t xml:space="preserve">VALI ECHOLAC PC183S (Bảo Hành 10 Năm) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">PC183S-032501_28_SLATE-BLUE </t>
+  </si>
+  <si>
+    <t xml:space="preserve">PC183S-032501_24_SLATE-BLUE </t>
+  </si>
+  <si>
+    <t xml:space="preserve">PC183S-032501_20_SLATE-BLUE </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vali IT Luggage IT15-2881-08 (Bảo Hành 5 Năm) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">IT15-2881-08-032501_74_BLUE-GLOW </t>
+  </si>
+  <si>
+    <t xml:space="preserve">IT15-2881-08-032501_74_SOFT-PINK </t>
+  </si>
+  <si>
+    <t xml:space="preserve">IT15-2881-08-032501_63_BLUE-GLOW </t>
+  </si>
+  <si>
+    <t xml:space="preserve">IT15-2881-08-032501_63_SOFT-PINK </t>
+  </si>
+  <si>
+    <t xml:space="preserve">IT15-2881-08-032501_51_BLUE-GLOW </t>
+  </si>
+  <si>
+    <t xml:space="preserve">IT15-2881-08-032501_51_SOFT-PINK </t>
+  </si>
+  <si>
+    <t xml:space="preserve">VALI ELLE EL31280 (Bảo Hành 5 Năm) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">EL31280-032501_26_0201-BLACK </t>
   </si>
   <si>
     <t xml:space="preserve">EL31280-032501_26_3301-PINK </t>
   </si>
   <si>
-    <t xml:space="preserve">EL31280-032501_26_0201-BLACK </t>
-  </si>
-  <si>
-    <t xml:space="preserve">PP02_24_NAVY </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vali Arrebol PP02 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">PC183S_28_SLATE-BLUE </t>
-  </si>
-  <si>
-    <t xml:space="preserve">VALI ECHOLAC PC183S </t>
-  </si>
-  <si>
-    <t xml:space="preserve">PC183S_24_SLATE-BLUE </t>
-  </si>
-  <si>
-    <t xml:space="preserve">PC183S_20_SLATE-BLUE </t>
-  </si>
-  <si>
-    <t xml:space="preserve">PC279G-032501_20_LIGHT-GREY </t>
-  </si>
-  <si>
-    <t xml:space="preserve">PC279G-032501_20_DEEP-OLIVE </t>
-  </si>
-  <si>
-    <t xml:space="preserve">PC279G-032501_20_BLACK </t>
-  </si>
-  <si>
-    <t xml:space="preserve">PC279G_20_LIGHT-GREY </t>
-  </si>
-  <si>
-    <t xml:space="preserve">VALY NHỰA 8 BÁNH HIỆU ECHOLAC PC279G </t>
-  </si>
-  <si>
-    <t xml:space="preserve">PC279G_20_BLACK </t>
-  </si>
-  <si>
-    <t xml:space="preserve">PC279G_20_DEEP-OLIVE </t>
+    <t>PP02_24_NAVY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VALI ECHOLAC CTA148 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CTA148_25_GREY </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CTA148_20_GREY </t>
   </si>
 </sst>
 </file>
@@ -2282,18 +2255,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D289"/>
+  <dimension ref="A1:D290"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F283" sqref="F283"/>
+    <sheetView tabSelected="1" topLeftCell="A228" workbookViewId="0">
+      <selection activeCell="A236" sqref="A236:XFD237"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="40.140625" customWidth="1"/>
     <col min="2" max="2" width="55.85546875" customWidth="1"/>
-    <col min="3" max="3" width="35" customWidth="1"/>
-    <col min="4" max="4" width="52.140625" customWidth="1"/>
+    <col min="3" max="3" width="37.85546875" customWidth="1"/>
+    <col min="4" max="4" width="65.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -3390,1874 +3363,1874 @@
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="2" t="s">
-        <v>464</v>
+        <v>164</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>557</v>
+        <v>166</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="2" t="s">
-        <v>462</v>
+        <v>168</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>555</v>
+        <v>169</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="2" t="s">
-        <v>463</v>
+        <v>170</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>556</v>
+        <v>171</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="2" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C82" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="D82" s="2" t="s">
         <v>167</v>
-      </c>
-      <c r="D82" s="2" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="2" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="2" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="2" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="2" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="2" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" s="2" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" s="2" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" s="2" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" s="2" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>185</v>
+        <v>191</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" s="2" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" s="2" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>189</v>
+        <v>195</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" s="2" t="s">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" s="2" t="s">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>193</v>
+        <v>199</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" s="2" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" s="2" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" s="2" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" s="2" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>201</v>
+        <v>207</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" s="2" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" s="2" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" s="2" t="s">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>207</v>
+        <v>213</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" s="2" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" s="2" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" s="2" t="s">
-        <v>212</v>
+        <v>218</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>213</v>
+        <v>219</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" s="2" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>215</v>
+        <v>221</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" s="2" t="s">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>217</v>
+        <v>223</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" s="2" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" s="2" t="s">
-        <v>220</v>
+        <v>226</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>221</v>
+        <v>227</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" s="2" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>221</v>
+        <v>227</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>225</v>
+        <v>231</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" s="2" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>221</v>
+        <v>227</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>227</v>
+        <v>233</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" s="2" t="s">
-        <v>228</v>
+        <v>234</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>221</v>
+        <v>227</v>
       </c>
       <c r="C112" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="D112" s="2" t="s">
         <v>229</v>
-      </c>
-      <c r="D112" s="2" t="s">
-        <v>223</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113" s="2" t="s">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>231</v>
+        <v>237</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>233</v>
+        <v>239</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114" s="2" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>231</v>
+        <v>237</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>235</v>
+        <v>241</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>233</v>
+        <v>239</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115" s="2" t="s">
-        <v>236</v>
+        <v>242</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>231</v>
+        <v>237</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>237</v>
+        <v>243</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>233</v>
+        <v>239</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116" s="2" t="s">
-        <v>238</v>
+        <v>244</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>239</v>
+        <v>245</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>241</v>
+        <v>247</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117" s="2" t="s">
-        <v>242</v>
+        <v>248</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>243</v>
+        <v>249</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>244</v>
+        <v>250</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118" s="2" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>243</v>
+        <v>249</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>247</v>
+        <v>253</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119" s="2" t="s">
-        <v>248</v>
+        <v>254</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>249</v>
+        <v>255</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120" s="2" t="s">
-        <v>252</v>
+        <v>258</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>249</v>
+        <v>255</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>253</v>
+        <v>259</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121" s="2" t="s">
-        <v>254</v>
+        <v>260</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>249</v>
+        <v>255</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>255</v>
+        <v>261</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A122" s="2" t="s">
-        <v>256</v>
+        <v>262</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>249</v>
+        <v>255</v>
       </c>
       <c r="C122" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="D122" s="2" t="s">
         <v>257</v>
-      </c>
-      <c r="D122" s="2" t="s">
-        <v>251</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A123" s="2" t="s">
-        <v>258</v>
+        <v>264</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>249</v>
+        <v>255</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>259</v>
+        <v>265</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A124" s="2" t="s">
-        <v>260</v>
+        <v>266</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>261</v>
+        <v>267</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>263</v>
+        <v>269</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A125" s="2" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>261</v>
+        <v>267</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>263</v>
+        <v>269</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A126" s="2" t="s">
-        <v>266</v>
+        <v>272</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>261</v>
+        <v>267</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>267</v>
+        <v>273</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>263</v>
+        <v>269</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A127" s="2" t="s">
-        <v>268</v>
+        <v>274</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>261</v>
+        <v>267</v>
       </c>
       <c r="C127" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="D127" s="2" t="s">
         <v>269</v>
-      </c>
-      <c r="D127" s="2" t="s">
-        <v>263</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A128" s="2" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>261</v>
+        <v>267</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>271</v>
+        <v>277</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>263</v>
+        <v>269</v>
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A129" s="2" t="s">
-        <v>272</v>
+        <v>278</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>261</v>
+        <v>267</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>263</v>
+        <v>269</v>
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A130" s="2" t="s">
-        <v>274</v>
+        <v>280</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>261</v>
+        <v>267</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>275</v>
+        <v>281</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>263</v>
+        <v>269</v>
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A131" s="2" t="s">
-        <v>276</v>
+        <v>282</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>261</v>
+        <v>267</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>277</v>
+        <v>283</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>263</v>
+        <v>269</v>
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A132" s="2" t="s">
-        <v>278</v>
+        <v>284</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>261</v>
+        <v>267</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>279</v>
+        <v>285</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>263</v>
+        <v>269</v>
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A133" s="2" t="s">
-        <v>280</v>
+        <v>286</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>281</v>
+        <v>287</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>282</v>
+        <v>288</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>283</v>
+        <v>289</v>
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A134" s="2" t="s">
-        <v>284</v>
+        <v>290</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>281</v>
+        <v>287</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>285</v>
+        <v>291</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>283</v>
+        <v>289</v>
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A135" s="2" t="s">
-        <v>286</v>
+        <v>292</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>281</v>
+        <v>287</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>287</v>
+        <v>293</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>283</v>
+        <v>289</v>
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A136" s="2" t="s">
-        <v>288</v>
+        <v>294</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>281</v>
+        <v>287</v>
       </c>
       <c r="C136" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="D136" s="2" t="s">
         <v>289</v>
-      </c>
-      <c r="D136" s="2" t="s">
-        <v>283</v>
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A137" s="2" t="s">
-        <v>290</v>
+        <v>296</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>281</v>
+        <v>287</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>291</v>
+        <v>297</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>283</v>
+        <v>289</v>
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A138" s="2" t="s">
-        <v>292</v>
+        <v>298</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>281</v>
+        <v>287</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>293</v>
+        <v>299</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>283</v>
+        <v>289</v>
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A139" s="2" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>281</v>
+        <v>287</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>295</v>
+        <v>301</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>283</v>
+        <v>289</v>
       </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A140" s="2" t="s">
-        <v>296</v>
+        <v>302</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>281</v>
+        <v>287</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>297</v>
+        <v>303</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>283</v>
+        <v>289</v>
       </c>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A141" s="2" t="s">
-        <v>298</v>
+        <v>304</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>281</v>
+        <v>287</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>299</v>
+        <v>305</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>283</v>
+        <v>289</v>
       </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A142" s="2" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>281</v>
+        <v>287</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>301</v>
+        <v>307</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>283</v>
+        <v>289</v>
       </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A143" s="2" t="s">
-        <v>302</v>
+        <v>308</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>281</v>
+        <v>287</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>303</v>
+        <v>309</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>283</v>
+        <v>289</v>
       </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A144" s="2" t="s">
-        <v>304</v>
+        <v>310</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>281</v>
+        <v>287</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>305</v>
+        <v>311</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>283</v>
+        <v>289</v>
       </c>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A145" s="2" t="s">
-        <v>306</v>
+        <v>312</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>307</v>
+        <v>313</v>
       </c>
       <c r="C145" s="2" t="s">
-        <v>308</v>
+        <v>314</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>309</v>
+        <v>315</v>
       </c>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A146" s="2" t="s">
-        <v>310</v>
+        <v>316</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>307</v>
+        <v>313</v>
       </c>
       <c r="C146" s="2" t="s">
-        <v>311</v>
+        <v>317</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>309</v>
+        <v>315</v>
       </c>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A147" s="2" t="s">
-        <v>312</v>
+        <v>318</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>307</v>
+        <v>313</v>
       </c>
       <c r="C147" s="2" t="s">
-        <v>313</v>
+        <v>319</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>309</v>
+        <v>315</v>
       </c>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A148" s="2" t="s">
-        <v>314</v>
+        <v>320</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>307</v>
+        <v>313</v>
       </c>
       <c r="C148" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="D148" s="2" t="s">
         <v>315</v>
-      </c>
-      <c r="D148" s="2" t="s">
-        <v>309</v>
       </c>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A149" s="2" t="s">
-        <v>316</v>
+        <v>322</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>307</v>
+        <v>313</v>
       </c>
       <c r="C149" s="2" t="s">
-        <v>317</v>
+        <v>323</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>309</v>
+        <v>315</v>
       </c>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A150" s="2" t="s">
-        <v>318</v>
+        <v>324</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>307</v>
+        <v>313</v>
       </c>
       <c r="C150" s="2" t="s">
-        <v>319</v>
+        <v>325</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>309</v>
+        <v>315</v>
       </c>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A151" s="2" t="s">
-        <v>320</v>
+        <v>326</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>307</v>
+        <v>313</v>
       </c>
       <c r="C151" s="2" t="s">
-        <v>321</v>
+        <v>327</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>309</v>
+        <v>315</v>
       </c>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A152" s="2" t="s">
-        <v>322</v>
+        <v>328</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>307</v>
+        <v>313</v>
       </c>
       <c r="C152" s="2" t="s">
-        <v>323</v>
+        <v>329</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>309</v>
+        <v>315</v>
       </c>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A153" s="2" t="s">
-        <v>324</v>
+        <v>330</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>307</v>
+        <v>313</v>
       </c>
       <c r="C153" s="2" t="s">
-        <v>325</v>
+        <v>331</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>309</v>
+        <v>315</v>
       </c>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A154" s="2" t="s">
-        <v>326</v>
+        <v>332</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>307</v>
+        <v>313</v>
       </c>
       <c r="C154" s="2" t="s">
-        <v>327</v>
+        <v>333</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>309</v>
+        <v>315</v>
       </c>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A155" s="2" t="s">
-        <v>328</v>
+        <v>334</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>307</v>
+        <v>313</v>
       </c>
       <c r="C155" s="2" t="s">
-        <v>329</v>
+        <v>335</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>309</v>
+        <v>315</v>
       </c>
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A156" s="2" t="s">
-        <v>330</v>
+        <v>336</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>307</v>
+        <v>313</v>
       </c>
       <c r="C156" s="2" t="s">
-        <v>331</v>
+        <v>337</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>309</v>
+        <v>315</v>
       </c>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A157" s="2" t="s">
-        <v>332</v>
+        <v>338</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>307</v>
+        <v>313</v>
       </c>
       <c r="C157" s="2" t="s">
-        <v>333</v>
+        <v>339</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>309</v>
+        <v>315</v>
       </c>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A158" s="2" t="s">
-        <v>334</v>
+        <v>340</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>307</v>
+        <v>313</v>
       </c>
       <c r="C158" s="2" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>309</v>
+        <v>315</v>
       </c>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A159" s="2" t="s">
-        <v>336</v>
+        <v>342</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>307</v>
+        <v>313</v>
       </c>
       <c r="C159" s="2" t="s">
-        <v>337</v>
+        <v>343</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>309</v>
+        <v>315</v>
       </c>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A160" s="2" t="s">
-        <v>338</v>
+        <v>344</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>307</v>
+        <v>313</v>
       </c>
       <c r="C160" s="2" t="s">
-        <v>339</v>
+        <v>345</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>309</v>
+        <v>315</v>
       </c>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A161" s="2" t="s">
-        <v>340</v>
+        <v>346</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>307</v>
+        <v>313</v>
       </c>
       <c r="C161" s="2" t="s">
-        <v>341</v>
+        <v>347</v>
       </c>
       <c r="D161" s="2" t="s">
-        <v>309</v>
+        <v>315</v>
       </c>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A162" s="2" t="s">
-        <v>342</v>
+        <v>348</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>307</v>
+        <v>313</v>
       </c>
       <c r="C162" s="2" t="s">
-        <v>343</v>
+        <v>349</v>
       </c>
       <c r="D162" s="2" t="s">
-        <v>309</v>
+        <v>315</v>
       </c>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A163" s="2" t="s">
-        <v>344</v>
+        <v>350</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>307</v>
+        <v>313</v>
       </c>
       <c r="C163" s="2" t="s">
-        <v>345</v>
+        <v>351</v>
       </c>
       <c r="D163" s="2" t="s">
-        <v>309</v>
+        <v>315</v>
       </c>
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A164" s="2" t="s">
-        <v>346</v>
+        <v>352</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>307</v>
+        <v>313</v>
       </c>
       <c r="C164" s="2" t="s">
-        <v>347</v>
+        <v>353</v>
       </c>
       <c r="D164" s="2" t="s">
-        <v>309</v>
+        <v>315</v>
       </c>
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A165" s="2" t="s">
-        <v>348</v>
+        <v>354</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>307</v>
+        <v>313</v>
       </c>
       <c r="C165" s="2" t="s">
-        <v>349</v>
+        <v>355</v>
       </c>
       <c r="D165" s="2" t="s">
-        <v>309</v>
+        <v>315</v>
       </c>
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A166" s="2" t="s">
-        <v>350</v>
+        <v>356</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>307</v>
+        <v>313</v>
       </c>
       <c r="C166" s="2" t="s">
-        <v>351</v>
+        <v>357</v>
       </c>
       <c r="D166" s="2" t="s">
-        <v>309</v>
+        <v>315</v>
       </c>
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A167" s="2" t="s">
-        <v>352</v>
+        <v>358</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>307</v>
+        <v>313</v>
       </c>
       <c r="C167" s="2" t="s">
-        <v>353</v>
+        <v>359</v>
       </c>
       <c r="D167" s="2" t="s">
-        <v>309</v>
+        <v>315</v>
       </c>
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A168" s="2" t="s">
-        <v>354</v>
+        <v>360</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>307</v>
+        <v>313</v>
       </c>
       <c r="C168" s="2" t="s">
-        <v>355</v>
+        <v>361</v>
       </c>
       <c r="D168" s="2" t="s">
-        <v>309</v>
+        <v>315</v>
       </c>
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A169" s="2" t="s">
-        <v>356</v>
+        <v>362</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>307</v>
+        <v>313</v>
       </c>
       <c r="C169" s="2" t="s">
-        <v>357</v>
+        <v>363</v>
       </c>
       <c r="D169" s="2" t="s">
-        <v>309</v>
+        <v>315</v>
       </c>
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A170" s="2" t="s">
-        <v>358</v>
+        <v>364</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>307</v>
+        <v>313</v>
       </c>
       <c r="C170" s="2" t="s">
-        <v>359</v>
+        <v>365</v>
       </c>
       <c r="D170" s="2" t="s">
-        <v>309</v>
+        <v>315</v>
       </c>
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A171" s="2" t="s">
-        <v>360</v>
+        <v>366</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>307</v>
+        <v>313</v>
       </c>
       <c r="C171" s="2" t="s">
-        <v>361</v>
+        <v>367</v>
       </c>
       <c r="D171" s="2" t="s">
-        <v>309</v>
+        <v>315</v>
       </c>
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A172" s="2" t="s">
-        <v>362</v>
+        <v>368</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>307</v>
+        <v>313</v>
       </c>
       <c r="C172" s="2" t="s">
-        <v>363</v>
+        <v>369</v>
       </c>
       <c r="D172" s="2" t="s">
-        <v>309</v>
+        <v>315</v>
       </c>
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A173" s="2" t="s">
-        <v>364</v>
+        <v>370</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>307</v>
+        <v>313</v>
       </c>
       <c r="C173" s="2" t="s">
-        <v>365</v>
+        <v>371</v>
       </c>
       <c r="D173" s="2" t="s">
-        <v>309</v>
+        <v>315</v>
       </c>
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A174" s="2" t="s">
-        <v>366</v>
+        <v>372</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>307</v>
+        <v>313</v>
       </c>
       <c r="C174" s="2" t="s">
-        <v>367</v>
+        <v>373</v>
       </c>
       <c r="D174" s="2" t="s">
-        <v>309</v>
+        <v>315</v>
       </c>
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A175" s="2" t="s">
-        <v>368</v>
+        <v>374</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>307</v>
+        <v>313</v>
       </c>
       <c r="C175" s="2" t="s">
-        <v>369</v>
+        <v>375</v>
       </c>
       <c r="D175" s="2" t="s">
-        <v>309</v>
+        <v>315</v>
       </c>
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A176" s="2" t="s">
-        <v>370</v>
+        <v>376</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>307</v>
+        <v>313</v>
       </c>
       <c r="C176" s="2" t="s">
-        <v>371</v>
+        <v>377</v>
       </c>
       <c r="D176" s="2" t="s">
-        <v>309</v>
+        <v>315</v>
       </c>
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A177" s="2" t="s">
-        <v>372</v>
+        <v>378</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>307</v>
+        <v>313</v>
       </c>
       <c r="C177" s="2" t="s">
-        <v>373</v>
+        <v>379</v>
       </c>
       <c r="D177" s="2" t="s">
-        <v>309</v>
+        <v>315</v>
       </c>
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A178" s="2" t="s">
-        <v>374</v>
+        <v>380</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>307</v>
+        <v>313</v>
       </c>
       <c r="C178" s="2" t="s">
-        <v>375</v>
+        <v>381</v>
       </c>
       <c r="D178" s="2" t="s">
-        <v>309</v>
+        <v>315</v>
       </c>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A179" s="2" t="s">
-        <v>376</v>
+        <v>382</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>307</v>
+        <v>313</v>
       </c>
       <c r="C179" s="2" t="s">
-        <v>377</v>
+        <v>383</v>
       </c>
       <c r="D179" s="2" t="s">
-        <v>309</v>
+        <v>315</v>
       </c>
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A180" s="2" t="s">
-        <v>378</v>
+        <v>384</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>307</v>
+        <v>313</v>
       </c>
       <c r="C180" s="2" t="s">
-        <v>379</v>
+        <v>385</v>
       </c>
       <c r="D180" s="2" t="s">
-        <v>309</v>
+        <v>315</v>
       </c>
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A181" s="2" t="s">
-        <v>380</v>
+        <v>386</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>307</v>
+        <v>313</v>
       </c>
       <c r="C181" s="2" t="s">
-        <v>381</v>
+        <v>387</v>
       </c>
       <c r="D181" s="2" t="s">
-        <v>309</v>
+        <v>315</v>
       </c>
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A182" s="2" t="s">
-        <v>382</v>
+        <v>388</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>307</v>
+        <v>313</v>
       </c>
       <c r="C182" s="2" t="s">
-        <v>383</v>
+        <v>389</v>
       </c>
       <c r="D182" s="2" t="s">
-        <v>309</v>
+        <v>315</v>
       </c>
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A183" s="2" t="s">
-        <v>384</v>
+        <v>390</v>
       </c>
       <c r="B183" s="2" t="s">
-        <v>307</v>
+        <v>313</v>
       </c>
       <c r="C183" s="2" t="s">
-        <v>385</v>
+        <v>391</v>
       </c>
       <c r="D183" s="2" t="s">
-        <v>309</v>
+        <v>315</v>
       </c>
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A184" s="2" t="s">
-        <v>386</v>
+        <v>392</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>387</v>
+        <v>393</v>
       </c>
       <c r="C184" s="2" t="s">
-        <v>388</v>
+        <v>394</v>
       </c>
       <c r="D184" s="2" t="s">
-        <v>389</v>
+        <v>395</v>
       </c>
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A185" s="2" t="s">
-        <v>390</v>
+        <v>396</v>
       </c>
       <c r="B185" s="2" t="s">
-        <v>387</v>
+        <v>393</v>
       </c>
       <c r="C185" s="2" t="s">
-        <v>391</v>
+        <v>397</v>
       </c>
       <c r="D185" s="2" t="s">
-        <v>389</v>
+        <v>395</v>
       </c>
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A186" s="2" t="s">
-        <v>392</v>
+        <v>398</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>387</v>
+        <v>393</v>
       </c>
       <c r="C186" s="2" t="s">
-        <v>393</v>
+        <v>399</v>
       </c>
       <c r="D186" s="2" t="s">
-        <v>389</v>
+        <v>395</v>
       </c>
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A187" s="2" t="s">
-        <v>394</v>
+        <v>400</v>
       </c>
       <c r="B187" s="2" t="s">
-        <v>387</v>
+        <v>393</v>
       </c>
       <c r="C187" s="2" t="s">
+        <v>401</v>
+      </c>
+      <c r="D187" s="2" t="s">
         <v>395</v>
-      </c>
-      <c r="D187" s="2" t="s">
-        <v>389</v>
       </c>
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A188" s="2" t="s">
-        <v>396</v>
+        <v>402</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>387</v>
+        <v>393</v>
       </c>
       <c r="C188" s="2" t="s">
-        <v>397</v>
+        <v>403</v>
       </c>
       <c r="D188" s="2" t="s">
-        <v>389</v>
+        <v>395</v>
       </c>
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A189" s="2" t="s">
-        <v>398</v>
+        <v>404</v>
       </c>
       <c r="B189" s="2" t="s">
-        <v>387</v>
+        <v>393</v>
       </c>
       <c r="C189" s="2" t="s">
-        <v>399</v>
+        <v>405</v>
       </c>
       <c r="D189" s="2" t="s">
-        <v>389</v>
+        <v>395</v>
       </c>
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A190" s="2" t="s">
-        <v>400</v>
+        <v>406</v>
       </c>
       <c r="B190" s="2" t="s">
-        <v>401</v>
+        <v>407</v>
       </c>
       <c r="C190" s="2" t="s">
-        <v>402</v>
+        <v>408</v>
       </c>
       <c r="D190" s="2" t="s">
-        <v>403</v>
+        <v>409</v>
       </c>
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A191" s="2" t="s">
-        <v>404</v>
+        <v>410</v>
       </c>
       <c r="B191" s="2" t="s">
-        <v>401</v>
+        <v>407</v>
       </c>
       <c r="C191" s="2" t="s">
-        <v>405</v>
+        <v>411</v>
       </c>
       <c r="D191" s="2" t="s">
-        <v>403</v>
+        <v>409</v>
       </c>
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A192" s="2" t="s">
-        <v>406</v>
+        <v>412</v>
       </c>
       <c r="B192" s="2" t="s">
-        <v>401</v>
+        <v>407</v>
       </c>
       <c r="C192" s="2" t="s">
-        <v>407</v>
+        <v>413</v>
       </c>
       <c r="D192" s="2" t="s">
-        <v>403</v>
+        <v>409</v>
       </c>
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A193" s="2" t="s">
-        <v>408</v>
+        <v>414</v>
       </c>
       <c r="B193" s="2" t="s">
-        <v>401</v>
+        <v>407</v>
       </c>
       <c r="C193" s="2" t="s">
+        <v>415</v>
+      </c>
+      <c r="D193" s="2" t="s">
         <v>409</v>
-      </c>
-      <c r="D193" s="2" t="s">
-        <v>403</v>
       </c>
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A194" s="2" t="s">
-        <v>410</v>
+        <v>416</v>
       </c>
       <c r="B194" s="2" t="s">
-        <v>411</v>
+        <v>417</v>
       </c>
       <c r="C194" s="2" t="s">
-        <v>412</v>
+        <v>418</v>
       </c>
       <c r="D194" s="2" t="s">
-        <v>413</v>
+        <v>419</v>
       </c>
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A195" s="2" t="s">
-        <v>414</v>
+        <v>420</v>
       </c>
       <c r="B195" s="2" t="s">
-        <v>411</v>
+        <v>417</v>
       </c>
       <c r="C195" s="2" t="s">
-        <v>415</v>
+        <v>421</v>
       </c>
       <c r="D195" s="2" t="s">
-        <v>413</v>
+        <v>419</v>
       </c>
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A196" s="2" t="s">
-        <v>416</v>
+        <v>422</v>
       </c>
       <c r="B196" s="2" t="s">
-        <v>411</v>
+        <v>417</v>
       </c>
       <c r="C196" s="2" t="s">
-        <v>417</v>
+        <v>423</v>
       </c>
       <c r="D196" s="2" t="s">
-        <v>413</v>
+        <v>419</v>
       </c>
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A197" s="2" t="s">
-        <v>418</v>
+        <v>424</v>
       </c>
       <c r="B197" s="2" t="s">
-        <v>411</v>
+        <v>417</v>
       </c>
       <c r="C197" s="2" t="s">
+        <v>425</v>
+      </c>
+      <c r="D197" s="2" t="s">
         <v>419</v>
-      </c>
-      <c r="D197" s="2" t="s">
-        <v>413</v>
       </c>
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A198" s="2" t="s">
-        <v>420</v>
+        <v>426</v>
       </c>
       <c r="B198" s="2" t="s">
-        <v>411</v>
+        <v>417</v>
       </c>
       <c r="C198" s="2" t="s">
-        <v>421</v>
+        <v>427</v>
       </c>
       <c r="D198" s="2" t="s">
-        <v>413</v>
+        <v>419</v>
       </c>
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A199" s="2" t="s">
-        <v>422</v>
+        <v>428</v>
       </c>
       <c r="B199" s="2" t="s">
-        <v>411</v>
+        <v>417</v>
       </c>
       <c r="C199" s="2" t="s">
-        <v>423</v>
+        <v>429</v>
       </c>
       <c r="D199" s="2" t="s">
-        <v>413</v>
+        <v>419</v>
       </c>
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A200" s="2" t="s">
-        <v>424</v>
+        <v>430</v>
       </c>
       <c r="B200" s="2" t="s">
-        <v>425</v>
+        <v>431</v>
       </c>
       <c r="C200" s="2" t="s">
-        <v>426</v>
+        <v>432</v>
       </c>
       <c r="D200" s="2" t="s">
-        <v>427</v>
+        <v>433</v>
       </c>
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A201" s="2" t="s">
-        <v>428</v>
+        <v>434</v>
       </c>
       <c r="B201" s="2" t="s">
-        <v>425</v>
+        <v>431</v>
       </c>
       <c r="C201" s="2" t="s">
-        <v>429</v>
+        <v>435</v>
       </c>
       <c r="D201" s="2" t="s">
-        <v>427</v>
+        <v>433</v>
       </c>
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A202" s="2" t="s">
-        <v>430</v>
+        <v>436</v>
       </c>
       <c r="B202" s="2" t="s">
-        <v>425</v>
+        <v>431</v>
       </c>
       <c r="C202" s="2" t="s">
-        <v>431</v>
+        <v>437</v>
       </c>
       <c r="D202" s="2" t="s">
-        <v>427</v>
+        <v>433</v>
       </c>
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A203" s="2" t="s">
-        <v>432</v>
+        <v>438</v>
       </c>
       <c r="B203" s="2" t="s">
-        <v>425</v>
+        <v>431</v>
       </c>
       <c r="C203" s="2" t="s">
+        <v>439</v>
+      </c>
+      <c r="D203" s="2" t="s">
         <v>433</v>
-      </c>
-      <c r="D203" s="2" t="s">
-        <v>427</v>
       </c>
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A204" s="2" t="s">
-        <v>434</v>
+        <v>440</v>
       </c>
       <c r="B204" s="2" t="s">
-        <v>425</v>
+        <v>431</v>
       </c>
       <c r="C204" s="2" t="s">
-        <v>435</v>
+        <v>441</v>
       </c>
       <c r="D204" s="2" t="s">
-        <v>427</v>
+        <v>433</v>
       </c>
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A205" s="2" t="s">
-        <v>436</v>
+        <v>442</v>
       </c>
       <c r="B205" s="2" t="s">
-        <v>425</v>
+        <v>431</v>
       </c>
       <c r="C205" s="2" t="s">
-        <v>437</v>
+        <v>443</v>
       </c>
       <c r="D205" s="2" t="s">
-        <v>427</v>
+        <v>433</v>
       </c>
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A206" s="2" t="s">
-        <v>438</v>
+        <v>444</v>
       </c>
       <c r="B206" s="2" t="s">
-        <v>425</v>
+        <v>431</v>
       </c>
       <c r="C206" s="2" t="s">
-        <v>439</v>
+        <v>445</v>
       </c>
       <c r="D206" s="2" t="s">
-        <v>427</v>
+        <v>433</v>
       </c>
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A207" s="2" t="s">
-        <v>440</v>
+        <v>446</v>
       </c>
       <c r="B207" s="2" t="s">
-        <v>425</v>
+        <v>431</v>
       </c>
       <c r="C207" s="2" t="s">
-        <v>441</v>
+        <v>447</v>
       </c>
       <c r="D207" s="2" t="s">
-        <v>427</v>
+        <v>433</v>
       </c>
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A208" s="2" t="s">
-        <v>442</v>
+        <v>448</v>
       </c>
       <c r="B208" s="2" t="s">
-        <v>425</v>
+        <v>431</v>
       </c>
       <c r="C208" s="2" t="s">
-        <v>443</v>
+        <v>449</v>
       </c>
       <c r="D208" s="2" t="s">
-        <v>427</v>
+        <v>433</v>
       </c>
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A209" s="2" t="s">
-        <v>444</v>
+        <v>450</v>
       </c>
       <c r="B209" s="2" t="s">
-        <v>425</v>
+        <v>431</v>
       </c>
       <c r="C209" s="2" t="s">
-        <v>445</v>
+        <v>451</v>
       </c>
       <c r="D209" s="2" t="s">
-        <v>427</v>
+        <v>433</v>
       </c>
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A210" s="2" t="s">
-        <v>446</v>
+        <v>452</v>
       </c>
       <c r="B210" s="2" t="s">
-        <v>425</v>
+        <v>431</v>
       </c>
       <c r="C210" s="2" t="s">
-        <v>447</v>
+        <v>453</v>
       </c>
       <c r="D210" s="2" t="s">
-        <v>427</v>
+        <v>433</v>
       </c>
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A211" s="2" t="s">
-        <v>448</v>
+        <v>454</v>
       </c>
       <c r="B211" s="2" t="s">
-        <v>425</v>
+        <v>431</v>
       </c>
       <c r="C211" s="2" t="s">
-        <v>449</v>
+        <v>455</v>
       </c>
       <c r="D211" s="2" t="s">
-        <v>427</v>
+        <v>433</v>
       </c>
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
-        <v>450</v>
+        <v>456</v>
       </c>
       <c r="B212" t="s">
         <v>71</v>
       </c>
-      <c r="C212" t="s">
+      <c r="C212" s="2" t="s">
         <v>553</v>
       </c>
       <c r="D212" t="s">
@@ -5266,12 +5239,12 @@
     </row>
     <row r="213" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
-        <v>451</v>
+        <v>457</v>
       </c>
       <c r="B213" t="s">
         <v>71</v>
       </c>
-      <c r="C213" t="s">
+      <c r="C213" s="2" t="s">
         <v>554</v>
       </c>
       <c r="D213" t="s">
@@ -5280,13 +5253,13 @@
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
-        <v>452</v>
+        <v>458</v>
       </c>
       <c r="B214" t="s">
         <v>71</v>
       </c>
-      <c r="C214" t="s">
-        <v>558</v>
+      <c r="C214" s="2" t="s">
+        <v>555</v>
       </c>
       <c r="D214" t="s">
         <v>73</v>
@@ -5294,13 +5267,13 @@
     </row>
     <row r="215" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
-        <v>453</v>
+        <v>459</v>
       </c>
       <c r="B215" t="s">
         <v>71</v>
       </c>
-      <c r="C215" t="s">
-        <v>559</v>
+      <c r="C215" s="2" t="s">
+        <v>556</v>
       </c>
       <c r="D215" t="s">
         <v>73</v>
@@ -5308,13 +5281,13 @@
     </row>
     <row r="216" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
-        <v>454</v>
+        <v>460</v>
       </c>
       <c r="B216" t="s">
         <v>71</v>
       </c>
-      <c r="C216" t="s">
-        <v>560</v>
+      <c r="C216" s="2" t="s">
+        <v>557</v>
       </c>
       <c r="D216" t="s">
         <v>73</v>
@@ -5322,13 +5295,13 @@
     </row>
     <row r="217" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
-        <v>455</v>
+        <v>461</v>
       </c>
       <c r="B217" t="s">
         <v>71</v>
       </c>
-      <c r="C217" t="s">
-        <v>561</v>
+      <c r="C217" s="2" t="s">
+        <v>558</v>
       </c>
       <c r="D217" t="s">
         <v>73</v>
@@ -5336,13 +5309,13 @@
     </row>
     <row r="218" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
-        <v>456</v>
+        <v>462</v>
       </c>
       <c r="B218" t="s">
         <v>71</v>
       </c>
-      <c r="C218" t="s">
-        <v>562</v>
+      <c r="C218" s="2" t="s">
+        <v>559</v>
       </c>
       <c r="D218" t="s">
         <v>73</v>
@@ -5350,13 +5323,13 @@
     </row>
     <row r="219" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
-        <v>457</v>
+        <v>463</v>
       </c>
       <c r="B219" t="s">
         <v>71</v>
       </c>
-      <c r="C219" t="s">
-        <v>563</v>
+      <c r="C219" s="2" t="s">
+        <v>560</v>
       </c>
       <c r="D219" t="s">
         <v>73</v>
@@ -5364,13 +5337,13 @@
     </row>
     <row r="220" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
-        <v>458</v>
+        <v>464</v>
       </c>
       <c r="B220" t="s">
         <v>71</v>
       </c>
-      <c r="C220" t="s">
-        <v>564</v>
+      <c r="C220" s="2" t="s">
+        <v>561</v>
       </c>
       <c r="D220" t="s">
         <v>73</v>
@@ -5378,13 +5351,13 @@
     </row>
     <row r="221" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
-        <v>459</v>
+        <v>465</v>
       </c>
       <c r="B221" t="s">
         <v>71</v>
       </c>
-      <c r="C221" t="s">
-        <v>565</v>
+      <c r="C221" s="2" t="s">
+        <v>562</v>
       </c>
       <c r="D221" t="s">
         <v>73</v>
@@ -5392,13 +5365,13 @@
     </row>
     <row r="222" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
-        <v>460</v>
+        <v>466</v>
       </c>
       <c r="B222" t="s">
         <v>71</v>
       </c>
-      <c r="C222" t="s">
-        <v>566</v>
+      <c r="C222" s="2" t="s">
+        <v>563</v>
       </c>
       <c r="D222" t="s">
         <v>73</v>
@@ -5406,13 +5379,13 @@
     </row>
     <row r="223" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
-        <v>461</v>
+        <v>467</v>
       </c>
       <c r="B223" t="s">
         <v>71</v>
       </c>
-      <c r="C223" t="s">
-        <v>567</v>
+      <c r="C223" s="2" t="s">
+        <v>564</v>
       </c>
       <c r="D223" t="s">
         <v>73</v>
@@ -5420,198 +5393,203 @@
     </row>
     <row r="224" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
-        <v>465</v>
+        <v>468</v>
       </c>
       <c r="B224" t="s">
-        <v>466</v>
-      </c>
-      <c r="C224" t="s">
-        <v>540</v>
+        <v>165</v>
+      </c>
+      <c r="C224" t="str">
+        <f>SUBSTITUTE(A224, "_", "-032501_", 1)</f>
+        <v>PW004-032501_24_LIGHT-GREY</v>
       </c>
       <c r="D224" t="s">
-        <v>541</v>
+        <v>167</v>
       </c>
     </row>
     <row r="225" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="B225" t="s">
-        <v>466</v>
-      </c>
-      <c r="C225" t="s">
-        <v>542</v>
+        <v>165</v>
+      </c>
+      <c r="C225" t="str">
+        <f t="shared" ref="C225:C237" si="0">SUBSTITUTE(A225, "_", "-032501_", 1)</f>
+        <v>PW004-032501_28_LIGHT-GREY</v>
       </c>
       <c r="D225" t="s">
-        <v>541</v>
+        <v>167</v>
       </c>
     </row>
     <row r="226" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="B226" t="s">
-        <v>466</v>
-      </c>
-      <c r="C226" t="s">
-        <v>543</v>
+        <v>165</v>
+      </c>
+      <c r="C226" t="str">
+        <f t="shared" si="0"/>
+        <v>PW004-032501_20_LIGHT-GREY</v>
       </c>
       <c r="D226" t="s">
-        <v>541</v>
+        <v>167</v>
       </c>
     </row>
     <row r="227" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="B227" t="s">
-        <v>466</v>
+        <v>472</v>
       </c>
       <c r="C227" t="s">
-        <v>544</v>
+        <v>567</v>
       </c>
       <c r="D227" t="s">
-        <v>541</v>
+        <v>565</v>
       </c>
     </row>
     <row r="228" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
-        <v>470</v>
+        <v>473</v>
       </c>
       <c r="B228" t="s">
-        <v>466</v>
+        <v>472</v>
       </c>
       <c r="C228" t="s">
-        <v>545</v>
+        <v>569</v>
       </c>
       <c r="D228" t="s">
-        <v>541</v>
+        <v>565</v>
       </c>
     </row>
     <row r="229" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
-        <v>471</v>
+        <v>474</v>
       </c>
       <c r="B229" t="s">
-        <v>466</v>
+        <v>472</v>
       </c>
       <c r="C229" t="s">
-        <v>546</v>
+        <v>570</v>
       </c>
       <c r="D229" t="s">
-        <v>541</v>
+        <v>565</v>
       </c>
     </row>
     <row r="230" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
+        <v>475</v>
+      </c>
+      <c r="B230" t="s">
         <v>472</v>
       </c>
-      <c r="B230" t="s">
-        <v>466</v>
-      </c>
       <c r="C230" t="s">
-        <v>547</v>
+        <v>568</v>
       </c>
       <c r="D230" t="s">
-        <v>541</v>
+        <v>565</v>
       </c>
     </row>
     <row r="231" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
-        <v>473</v>
+        <v>476</v>
       </c>
       <c r="B231" t="s">
-        <v>466</v>
+        <v>472</v>
       </c>
       <c r="C231" t="s">
-        <v>548</v>
+        <v>571</v>
       </c>
       <c r="D231" t="s">
-        <v>541</v>
+        <v>565</v>
       </c>
     </row>
     <row r="232" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
-        <v>474</v>
+        <v>477</v>
       </c>
       <c r="B232" t="s">
-        <v>466</v>
+        <v>472</v>
       </c>
       <c r="C232" t="s">
-        <v>549</v>
+        <v>572</v>
       </c>
       <c r="D232" t="s">
-        <v>541</v>
+        <v>565</v>
       </c>
     </row>
     <row r="233" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
-        <v>475</v>
+        <v>478</v>
       </c>
       <c r="B233" t="s">
-        <v>221</v>
+        <v>472</v>
       </c>
       <c r="C233" t="s">
-        <v>550</v>
+        <v>573</v>
       </c>
       <c r="D233" t="s">
-        <v>223</v>
+        <v>565</v>
       </c>
     </row>
     <row r="234" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
-        <v>476</v>
+        <v>479</v>
       </c>
       <c r="B234" t="s">
-        <v>221</v>
+        <v>472</v>
       </c>
       <c r="C234" t="s">
-        <v>551</v>
+        <v>574</v>
       </c>
       <c r="D234" t="s">
-        <v>223</v>
+        <v>565</v>
       </c>
     </row>
     <row r="235" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
-        <v>477</v>
+        <v>480</v>
       </c>
       <c r="B235" t="s">
-        <v>239</v>
+        <v>472</v>
       </c>
       <c r="C235" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="D235" t="s">
-        <v>575</v>
+        <v>565</v>
       </c>
     </row>
     <row r="236" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
-        <v>478</v>
+        <v>481</v>
       </c>
       <c r="B236" t="s">
-        <v>243</v>
-      </c>
-      <c r="C236" t="s">
-        <v>576</v>
+        <v>227</v>
+      </c>
+      <c r="C236" t="str">
+        <f t="shared" si="0"/>
+        <v>CTA148-032501_25_DARK-GREY</v>
       </c>
       <c r="D236" t="s">
-        <v>582</v>
+        <v>566</v>
       </c>
     </row>
     <row r="237" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A237" s="3" t="s">
-        <v>479</v>
-      </c>
-      <c r="B237" s="3" t="s">
-        <v>480</v>
-      </c>
-      <c r="C237" s="3" t="s">
-        <v>481</v>
-      </c>
-      <c r="D237" s="3" t="s">
+      <c r="A237" t="s">
         <v>482</v>
+      </c>
+      <c r="B237" t="s">
+        <v>227</v>
+      </c>
+      <c r="C237" t="str">
+        <f t="shared" si="0"/>
+        <v>CTA148-032501_20_DARK-GREY</v>
+      </c>
+      <c r="D237" t="s">
+        <v>566</v>
       </c>
     </row>
     <row r="238" spans="1:4" x14ac:dyDescent="0.25">
@@ -5619,13 +5597,13 @@
         <v>483</v>
       </c>
       <c r="B238" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="C238" t="s">
-        <v>583</v>
+        <v>577</v>
       </c>
       <c r="D238" t="s">
-        <v>251</v>
+        <v>576</v>
       </c>
     </row>
     <row r="239" spans="1:4" x14ac:dyDescent="0.25">
@@ -5636,402 +5614,414 @@
         <v>249</v>
       </c>
       <c r="C239" t="s">
-        <v>568</v>
+        <v>579</v>
       </c>
       <c r="D239" t="s">
-        <v>251</v>
+        <v>578</v>
       </c>
     </row>
     <row r="240" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A240" t="s">
+      <c r="A240" s="3" t="s">
         <v>485</v>
       </c>
-      <c r="B240" t="s">
-        <v>249</v>
-      </c>
-      <c r="C240" t="s">
-        <v>569</v>
-      </c>
-      <c r="D240" t="s">
-        <v>251</v>
+      <c r="B240" s="3" t="s">
+        <v>486</v>
+      </c>
+      <c r="C240" s="3" t="s">
+        <v>580</v>
+      </c>
+      <c r="D240" s="3" t="s">
+        <v>487</v>
       </c>
     </row>
     <row r="241" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="B241" t="s">
-        <v>249</v>
-      </c>
-      <c r="C241" t="s">
-        <v>570</v>
+        <v>255</v>
+      </c>
+      <c r="C241" t="str">
+        <f>SUBSTITUTE(A241, "_", "-032501_", 1)</f>
+        <v>PC142Y-032501_28_WHITE-SAND</v>
       </c>
       <c r="D241" t="s">
-        <v>251</v>
+        <v>586</v>
       </c>
     </row>
     <row r="242" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="B242" t="s">
-        <v>249</v>
-      </c>
-      <c r="C242" t="s">
-        <v>571</v>
+        <v>255</v>
+      </c>
+      <c r="C242" t="str">
+        <f t="shared" ref="C242:C252" si="1">SUBSTITUTE(A242, "_", "-032501_", 1)</f>
+        <v>PC142Y-032501_28_DARK-GREY</v>
       </c>
       <c r="D242" t="s">
-        <v>251</v>
+        <v>586</v>
       </c>
     </row>
     <row r="243" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="B243" t="s">
-        <v>249</v>
-      </c>
-      <c r="C243" t="s">
-        <v>572</v>
+        <v>255</v>
+      </c>
+      <c r="C243" t="str">
+        <f t="shared" si="1"/>
+        <v>PC142Y-032501_28_ICE-BLUE</v>
       </c>
       <c r="D243" t="s">
-        <v>251</v>
+        <v>586</v>
       </c>
     </row>
     <row r="244" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="B244" t="s">
-        <v>249</v>
-      </c>
-      <c r="C244" t="s">
-        <v>573</v>
+        <v>255</v>
+      </c>
+      <c r="C244" t="str">
+        <f t="shared" si="1"/>
+        <v>PC142Y-032501_28_DARK-BLUE</v>
       </c>
       <c r="D244" t="s">
-        <v>251</v>
+        <v>586</v>
       </c>
     </row>
     <row r="245" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="B245" t="s">
-        <v>249</v>
-      </c>
-      <c r="C245" t="s">
-        <v>577</v>
+        <v>255</v>
+      </c>
+      <c r="C245" t="str">
+        <f t="shared" si="1"/>
+        <v>PC142Y-032501_24_WHITE-SAND</v>
       </c>
       <c r="D245" t="s">
-        <v>251</v>
+        <v>586</v>
       </c>
     </row>
     <row r="246" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="B246" t="s">
-        <v>249</v>
-      </c>
-      <c r="C246" t="s">
-        <v>578</v>
+        <v>255</v>
+      </c>
+      <c r="C246" t="str">
+        <f t="shared" si="1"/>
+        <v>PC142Y-032501_24_DARK-GREY</v>
       </c>
       <c r="D246" t="s">
-        <v>251</v>
+        <v>586</v>
       </c>
     </row>
     <row r="247" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="B247" t="s">
-        <v>249</v>
-      </c>
-      <c r="C247" t="s">
-        <v>579</v>
+        <v>255</v>
+      </c>
+      <c r="C247" t="str">
+        <f t="shared" si="1"/>
+        <v>PC142Y-032501_24_ICE-BLUE</v>
       </c>
       <c r="D247" t="s">
-        <v>251</v>
+        <v>586</v>
       </c>
     </row>
     <row r="248" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="B248" t="s">
-        <v>249</v>
-      </c>
-      <c r="C248" t="s">
-        <v>580</v>
+        <v>255</v>
+      </c>
+      <c r="C248" t="str">
+        <f t="shared" si="1"/>
+        <v>PC142Y-032501_24_DARK-BLUE</v>
       </c>
       <c r="D248" t="s">
-        <v>251</v>
+        <v>586</v>
       </c>
     </row>
     <row r="249" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="B249" t="s">
-        <v>249</v>
-      </c>
-      <c r="C249" t="s">
-        <v>581</v>
+        <v>255</v>
+      </c>
+      <c r="C249" t="str">
+        <f t="shared" si="1"/>
+        <v>PC142Y-032501_20_WHITE-SAND</v>
       </c>
       <c r="D249" t="s">
-        <v>251</v>
+        <v>586</v>
       </c>
     </row>
     <row r="250" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="B250" t="s">
-        <v>307</v>
-      </c>
-      <c r="C250" t="s">
-        <v>584</v>
+        <v>255</v>
+      </c>
+      <c r="C250" t="str">
+        <f t="shared" si="1"/>
+        <v>PC142Y-032501_20_DARK-GREY</v>
       </c>
       <c r="D250" t="s">
-        <v>309</v>
+        <v>586</v>
       </c>
     </row>
     <row r="251" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="B251" t="s">
-        <v>307</v>
-      </c>
-      <c r="C251" t="s">
-        <v>587</v>
+        <v>255</v>
+      </c>
+      <c r="C251" t="str">
+        <f t="shared" si="1"/>
+        <v>PC142Y-032501_20_ICE-BLUE</v>
       </c>
       <c r="D251" t="s">
-        <v>309</v>
+        <v>586</v>
       </c>
     </row>
     <row r="252" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
-        <v>497</v>
+        <v>499</v>
       </c>
       <c r="B252" t="s">
-        <v>307</v>
-      </c>
-      <c r="C252" t="s">
-        <v>590</v>
+        <v>255</v>
+      </c>
+      <c r="C252" t="str">
+        <f t="shared" si="1"/>
+        <v>PC142Y-032501_20_DARK-BLUE</v>
       </c>
       <c r="D252" t="s">
-        <v>309</v>
+        <v>586</v>
       </c>
     </row>
     <row r="253" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="B253" t="s">
-        <v>307</v>
+        <v>313</v>
       </c>
       <c r="C253" t="s">
-        <v>593</v>
+        <v>588</v>
       </c>
       <c r="D253" t="s">
-        <v>309</v>
+        <v>587</v>
       </c>
     </row>
     <row r="254" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="B254" t="s">
-        <v>307</v>
+        <v>313</v>
       </c>
       <c r="C254" t="s">
-        <v>585</v>
+        <v>589</v>
       </c>
       <c r="D254" t="s">
-        <v>309</v>
+        <v>587</v>
       </c>
     </row>
     <row r="255" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="B255" t="s">
-        <v>307</v>
+        <v>313</v>
       </c>
       <c r="C255" t="s">
-        <v>588</v>
+        <v>590</v>
       </c>
       <c r="D255" t="s">
-        <v>309</v>
+        <v>587</v>
       </c>
     </row>
     <row r="256" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="B256" t="s">
-        <v>307</v>
+        <v>313</v>
       </c>
       <c r="C256" t="s">
         <v>591</v>
       </c>
       <c r="D256" t="s">
-        <v>309</v>
+        <v>587</v>
       </c>
     </row>
     <row r="257" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="B257" t="s">
-        <v>307</v>
+        <v>313</v>
       </c>
       <c r="C257" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="D257" t="s">
-        <v>309</v>
+        <v>587</v>
       </c>
     </row>
     <row r="258" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="B258" t="s">
-        <v>307</v>
+        <v>313</v>
       </c>
       <c r="C258" t="s">
-        <v>586</v>
+        <v>593</v>
       </c>
       <c r="D258" t="s">
-        <v>309</v>
+        <v>587</v>
       </c>
     </row>
     <row r="259" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="B259" t="s">
-        <v>307</v>
+        <v>313</v>
       </c>
       <c r="C259" t="s">
-        <v>589</v>
+        <v>594</v>
       </c>
       <c r="D259" t="s">
-        <v>309</v>
+        <v>587</v>
       </c>
     </row>
     <row r="260" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="B260" t="s">
-        <v>307</v>
+        <v>313</v>
       </c>
       <c r="C260" t="s">
-        <v>592</v>
+        <v>595</v>
       </c>
       <c r="D260" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="261" spans="1:4" x14ac:dyDescent="0.25">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="261" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
-        <v>506</v>
+        <v>508</v>
       </c>
       <c r="B261" t="s">
-        <v>307</v>
+        <v>313</v>
       </c>
       <c r="C261" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="D261" t="s">
-        <v>309</v>
+        <v>587</v>
       </c>
     </row>
     <row r="262" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
-        <v>507</v>
+        <v>509</v>
       </c>
       <c r="B262" t="s">
-        <v>307</v>
+        <v>313</v>
       </c>
       <c r="C262" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="D262" t="s">
-        <v>309</v>
+        <v>587</v>
       </c>
     </row>
     <row r="263" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="B263" t="s">
-        <v>387</v>
+        <v>313</v>
       </c>
       <c r="C263" t="s">
-        <v>606</v>
+        <v>598</v>
       </c>
       <c r="D263" t="s">
-        <v>389</v>
+        <v>587</v>
       </c>
     </row>
     <row r="264" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
-        <v>509</v>
+        <v>511</v>
       </c>
       <c r="B264" t="s">
-        <v>387</v>
+        <v>313</v>
       </c>
       <c r="C264" t="s">
-        <v>604</v>
+        <v>599</v>
       </c>
       <c r="D264" t="s">
-        <v>389</v>
+        <v>587</v>
       </c>
     </row>
     <row r="265" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="B265" t="s">
-        <v>387</v>
+        <v>313</v>
       </c>
       <c r="C265" t="s">
-        <v>605</v>
+        <v>600</v>
       </c>
       <c r="D265" t="s">
-        <v>389</v>
+        <v>587</v>
       </c>
     </row>
     <row r="266" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
-        <v>511</v>
+        <v>513</v>
       </c>
       <c r="B266" t="s">
-        <v>512</v>
+        <v>393</v>
       </c>
       <c r="C266" t="s">
-        <v>597</v>
+        <v>602</v>
       </c>
       <c r="D266" t="s">
-        <v>552</v>
+        <v>601</v>
       </c>
     </row>
     <row r="267" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="B267" t="s">
-        <v>514</v>
+        <v>393</v>
       </c>
       <c r="C267" t="s">
-        <v>598</v>
+        <v>603</v>
       </c>
       <c r="D267" t="s">
-        <v>552</v>
+        <v>601</v>
       </c>
     </row>
     <row r="268" spans="1:4" x14ac:dyDescent="0.25">
@@ -6039,167 +6029,167 @@
         <v>515</v>
       </c>
       <c r="B268" t="s">
-        <v>516</v>
+        <v>393</v>
       </c>
       <c r="C268" t="s">
-        <v>599</v>
+        <v>604</v>
       </c>
       <c r="D268" t="s">
-        <v>552</v>
+        <v>601</v>
       </c>
     </row>
     <row r="269" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
+        <v>516</v>
+      </c>
+      <c r="B269" t="s">
         <v>517</v>
       </c>
-      <c r="B269" t="s">
-        <v>518</v>
-      </c>
       <c r="C269" t="s">
-        <v>600</v>
+        <v>606</v>
       </c>
       <c r="D269" t="s">
-        <v>552</v>
+        <v>605</v>
       </c>
     </row>
     <row r="270" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
+        <v>518</v>
+      </c>
+      <c r="B270" t="s">
         <v>519</v>
       </c>
-      <c r="B270" t="s">
-        <v>520</v>
-      </c>
       <c r="C270" t="s">
-        <v>601</v>
+        <v>607</v>
       </c>
       <c r="D270" t="s">
-        <v>552</v>
+        <v>605</v>
       </c>
     </row>
     <row r="271" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
+        <v>520</v>
+      </c>
+      <c r="B271" t="s">
         <v>521</v>
       </c>
-      <c r="B271" t="s">
-        <v>522</v>
-      </c>
       <c r="C271" t="s">
-        <v>602</v>
+        <v>608</v>
       </c>
       <c r="D271" t="s">
-        <v>552</v>
+        <v>605</v>
       </c>
     </row>
     <row r="272" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
+        <v>522</v>
+      </c>
+      <c r="B272" t="s">
         <v>523</v>
       </c>
-      <c r="B272" t="s">
+      <c r="C272" t="s">
+        <v>609</v>
+      </c>
+      <c r="D272" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="273" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A273" t="s">
         <v>524</v>
       </c>
-      <c r="C272" t="s">
-        <v>603</v>
-      </c>
-      <c r="D272" t="s">
-        <v>608</v>
-      </c>
-    </row>
-    <row r="273" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A273" s="3" t="s">
+      <c r="B273" t="s">
         <v>525</v>
       </c>
-      <c r="B273" s="3" t="s">
-        <v>524</v>
-      </c>
-      <c r="C273" s="3" t="s">
-        <v>607</v>
-      </c>
-      <c r="D273" s="3" t="s">
-        <v>608</v>
+      <c r="C273" t="s">
+        <v>610</v>
+      </c>
+      <c r="D273" t="s">
+        <v>605</v>
       </c>
     </row>
     <row r="274" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
+        <v>526</v>
+      </c>
+      <c r="B274" t="s">
         <v>527</v>
       </c>
-      <c r="B274" t="s">
-        <v>524</v>
-      </c>
       <c r="C274" t="s">
-        <v>609</v>
-      </c>
-      <c r="D274" s="3" t="s">
-        <v>608</v>
+        <v>611</v>
+      </c>
+      <c r="D274" t="s">
+        <v>605</v>
       </c>
     </row>
     <row r="275" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A275" s="3" t="s">
+      <c r="A275" t="s">
         <v>528</v>
       </c>
-      <c r="B275" s="3" t="s">
-        <v>524</v>
-      </c>
-      <c r="C275" s="3" t="s">
-        <v>610</v>
+      <c r="B275" t="s">
+        <v>529</v>
+      </c>
+      <c r="C275" t="s">
+        <v>547</v>
       </c>
       <c r="D275" s="3" t="s">
-        <v>608</v>
+        <v>531</v>
       </c>
     </row>
     <row r="276" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A276" t="s">
+      <c r="A276" s="3" t="s">
+        <v>530</v>
+      </c>
+      <c r="B276" s="3" t="s">
         <v>529</v>
       </c>
-      <c r="B276" t="s">
-        <v>524</v>
-      </c>
-      <c r="C276" t="s">
-        <v>611</v>
+      <c r="C276" s="3" t="s">
+        <v>548</v>
       </c>
       <c r="D276" s="3" t="s">
-        <v>608</v>
+        <v>531</v>
       </c>
     </row>
     <row r="277" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A277" s="3" t="s">
-        <v>530</v>
-      </c>
-      <c r="B277" s="3" t="s">
-        <v>524</v>
-      </c>
-      <c r="C277" s="3" t="s">
-        <v>612</v>
+      <c r="A277" t="s">
+        <v>532</v>
+      </c>
+      <c r="B277" t="s">
+        <v>529</v>
+      </c>
+      <c r="C277" t="s">
+        <v>549</v>
       </c>
       <c r="D277" s="3" t="s">
-        <v>526</v>
+        <v>531</v>
       </c>
     </row>
     <row r="278" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A278" s="3" t="s">
+        <v>533</v>
+      </c>
+      <c r="B278" s="3" t="s">
+        <v>529</v>
+      </c>
+      <c r="C278" s="3" t="s">
+        <v>550</v>
+      </c>
+      <c r="D278" s="3" t="s">
         <v>531</v>
       </c>
-      <c r="B278" s="3" t="s">
-        <v>411</v>
-      </c>
-      <c r="C278" s="3" t="s">
-        <v>532</v>
-      </c>
-      <c r="D278" s="3" t="s">
-        <v>413</v>
-      </c>
     </row>
     <row r="279" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A279" s="3" t="s">
-        <v>533</v>
-      </c>
-      <c r="B279" s="3" t="s">
-        <v>411</v>
-      </c>
-      <c r="C279" s="3" t="s">
+      <c r="A279" t="s">
         <v>534</v>
       </c>
+      <c r="B279" t="s">
+        <v>529</v>
+      </c>
+      <c r="C279" t="s">
+        <v>551</v>
+      </c>
       <c r="D279" s="3" t="s">
-        <v>413</v>
+        <v>531</v>
       </c>
     </row>
     <row r="280" spans="1:4" x14ac:dyDescent="0.25">
@@ -6207,143 +6197,157 @@
         <v>535</v>
       </c>
       <c r="B280" s="3" t="s">
-        <v>411</v>
+        <v>529</v>
       </c>
       <c r="C280" s="3" t="s">
+        <v>552</v>
+      </c>
+      <c r="D280" s="3" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="281" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A281" s="3" t="s">
         <v>536</v>
       </c>
-      <c r="D280" s="3" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="281" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A281" t="s">
+      <c r="B281" s="3" t="s">
+        <v>417</v>
+      </c>
+      <c r="C281" s="3" t="s">
         <v>537</v>
       </c>
-      <c r="B281" t="s">
-        <v>425</v>
-      </c>
-      <c r="C281" s="3" t="s">
-        <v>613</v>
-      </c>
       <c r="D281" s="3" t="s">
-        <v>413</v>
+        <v>419</v>
       </c>
     </row>
     <row r="282" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A282" t="s">
+      <c r="A282" s="3" t="s">
         <v>538</v>
       </c>
-      <c r="B282" t="s">
-        <v>425</v>
+      <c r="B282" s="3" t="s">
+        <v>417</v>
       </c>
       <c r="C282" s="3" t="s">
-        <v>614</v>
+        <v>539</v>
       </c>
       <c r="D282" s="3" t="s">
-        <v>413</v>
+        <v>419</v>
       </c>
     </row>
     <row r="283" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A283" s="3" t="s">
-        <v>615</v>
+        <v>540</v>
       </c>
       <c r="B283" s="3" t="s">
-        <v>616</v>
-      </c>
-      <c r="C283" t="s">
-        <v>539</v>
-      </c>
-      <c r="D283" t="s">
-        <v>7</v>
+        <v>417</v>
+      </c>
+      <c r="C283" s="3" t="s">
+        <v>541</v>
+      </c>
+      <c r="D283" s="3" t="s">
+        <v>419</v>
       </c>
     </row>
     <row r="284" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A284" s="3" t="s">
-        <v>617</v>
-      </c>
-      <c r="B284" s="3" t="s">
-        <v>618</v>
-      </c>
-      <c r="C284" t="s">
-        <v>606</v>
-      </c>
-      <c r="D284" t="s">
-        <v>389</v>
+      <c r="A284" t="s">
+        <v>542</v>
+      </c>
+      <c r="B284" t="s">
+        <v>431</v>
+      </c>
+      <c r="C284" s="3" t="s">
+        <v>614</v>
+      </c>
+      <c r="D284" s="3" t="s">
+        <v>612</v>
       </c>
     </row>
     <row r="285" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A285" s="3" t="s">
-        <v>619</v>
-      </c>
-      <c r="B285" s="3" t="s">
-        <v>618</v>
-      </c>
-      <c r="C285" t="s">
-        <v>604</v>
-      </c>
-      <c r="D285" t="s">
-        <v>389</v>
+      <c r="A285" t="s">
+        <v>543</v>
+      </c>
+      <c r="B285" t="s">
+        <v>431</v>
+      </c>
+      <c r="C285" s="3" t="s">
+        <v>613</v>
+      </c>
+      <c r="D285" s="3" t="s">
+        <v>612</v>
       </c>
     </row>
     <row r="286" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A286" s="3" t="s">
-        <v>620</v>
+        <v>615</v>
       </c>
       <c r="B286" s="3" t="s">
-        <v>618</v>
+        <v>5</v>
       </c>
       <c r="C286" t="s">
-        <v>605</v>
+        <v>544</v>
       </c>
       <c r="D286" t="s">
-        <v>389</v>
+        <v>7</v>
       </c>
     </row>
     <row r="287" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A287" s="3" t="s">
-        <v>624</v>
+        <v>617</v>
       </c>
       <c r="B287" s="3" t="s">
-        <v>625</v>
+        <v>616</v>
       </c>
       <c r="C287" t="s">
-        <v>621</v>
+        <v>545</v>
       </c>
       <c r="D287" t="s">
-        <v>482</v>
+        <v>229</v>
       </c>
     </row>
     <row r="288" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A288" s="3" t="s">
-        <v>627</v>
+        <v>618</v>
       </c>
       <c r="B288" s="3" t="s">
-        <v>625</v>
+        <v>616</v>
       </c>
       <c r="C288" t="s">
-        <v>622</v>
+        <v>546</v>
       </c>
       <c r="D288" t="s">
-        <v>482</v>
+        <v>229</v>
       </c>
     </row>
     <row r="289" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A289" s="3" t="s">
-        <v>626</v>
+        <v>581</v>
       </c>
       <c r="B289" s="3" t="s">
-        <v>625</v>
+        <v>582</v>
       </c>
       <c r="C289" t="s">
-        <v>623</v>
+        <v>585</v>
       </c>
       <c r="D289" t="s">
-        <v>482</v>
+        <v>487</v>
+      </c>
+    </row>
+    <row r="290" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A290" s="3" t="s">
+        <v>583</v>
+      </c>
+      <c r="B290" s="3" t="s">
+        <v>582</v>
+      </c>
+      <c r="C290" t="s">
+        <v>584</v>
+      </c>
+      <c r="D290" t="s">
+        <v>487</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>